--- a/PagineHtml/prodotti9.0.xlsx
+++ b/PagineHtml/prodotti9.0.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prezzo di fabbrica asciugamano in fibra di bambù personalizzato al 100% panni per la pulizia ecologici biodegradabili panni per la pulizia della cucina riutilizzabili</t>
+          <t>Chizhou Lihua Environment Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Produttori logo personalizzato riutilizzabile assorbire rapidamente acqua di bambù panno antiallergico viso di bambù</t>
+          <t>Shenzhen Kingyard Int'l Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Shanghai Chuangsi Youxiang Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Salvietta di carta per la pulizia ecologica all'ingrosso della fabbrica, carta da cucina riutilizzabile</t>
+          <t>Henrich (shandong) Health Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Asciugamani riutilizzabili in bambù ecologici asciugamano in spugna di bambù all'ingrosso panni per il viso in bambù organico bianco</t>
+          <t>Hebei Dirui Textile Co., Ltd.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>La fabbrica di vendita calda asciugamani per la cucina di bambù in fibra di panno di lavaggio con ecologia e riutilizzo</t>
+          <t>Changshu Changfu Textile Co., Ltd.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>La fabbrica di vendita calda asciugamani puliti per la cucina di bambù in fibra di panno di lavaggio con ecologia e riutilizzare canovaccio</t>
+          <t>Liaoning Tanghe Daily Necessities Co., Ltd.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fornitura diretta dalla fabbrica di carta di bambù in fibra di bambù panno viso morbido leggero Eco Friendly struccante salviettine riutilizzabili</t>
+          <t>Huizhou MeiJi Non Woven Fabric Products Co.,Ltd.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Baby Organic Bamboo salviette a basso prezzo produttore salviette riutilizzabili Eco Friendly Baby Facial Cleaning</t>
+          <t>Shanghai Chuangsi Youxiang Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bio OEM campione gratuito Eco Friendly cucina bagno pulizia panno lavabile Super assorbente salviette riutilizzabili asciugamani di carta di bambù</t>
+          <t>Hangzhou Biogen Hygiene Co., Ltd.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Produttore di salviette per neonati in bambù organico lavabile riutilizzabile ecologico con Logo personalizzato all'ingrosso</t>
+          <t>Shanghai Chuangsi Youxiang Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>100% eco organico fibra di bambù lavabile asciugamano da cucina rotolo salviette di bambù panno per la pulizia asciugamani di carta di bambù riutilizzabili</t>
+          <t>Chizhou Lihua Environment Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BSCI ISO9001 tessuto di bambù salviette di bambù lavabili all'ingrosso 100% rotolo di asciugamani di carta di bambù riutilizzabile da cucina</t>
+          <t>Ningbo Riway Nonwovens Tech Co., Ltd.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Biokleen OEM 30 Zero rifiuti prodotti ecologici asciugamani di carta riutilizzabili in bambù sostenibile rotolo di panno per la pulizia della cucina lavabile</t>
+          <t>Hangzhou Biogen Hygiene Co., Ltd.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Panno in microfibra di bambù riutilizzabile riciclabile di alta qualità colorato all'ingrosso della fabbrica</t>
+          <t>Henan Enda New Material Co., Ltd.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Zhejiang Wipex New Material Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Panni riutilizzabili eco-friendly per la pulizia dei piatti di bambù assorbenti biodegradabili senza lanugine sostenibile uso del bagno rinnovabile all'ingrosso</t>
+          <t>Blueseth Technology (Dalian) Co., Ltd.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Salviette per adulti all'ingrosso,</t>
+          <t>Shaoxing Elite Bio-Tech Co., Ltd.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BCSI ISO9001 GRS asciugamano in fibra di bambù riutilizzabile 125 volte oem fabbrica vendita direttamente 100% bambù stracci per la pulizia articoli per la casa</t>
+          <t>Hangzhou Clear Cleaning Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>All'ingrosso panno di bambù salviette asciugamani di buona qualità a basso prezzo comodo e pulito eco-friendly Private Label lavabile per i bambini</t>
+          <t>Shanghai Chuangsi Youxiang Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>All'ingrosso della fabbrica microfibra panno salviette prodotti per la pulizia bambus prodotti ecologici</t>
+          <t>Changshu Changfu Textile Co., Ltd.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di bambù carbone organico piatto asciugamani da cucina riutilizzabile in microfibra panno per la pulizia</t>
+          <t>Jinhua Zhili Daily Necessities Co., Ltd.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di alta qualità pasta di bambù tovagliolo di carta da cucina 200gsm panni per la pulizia monouso in fibra di bambù materiale</t>
+          <t>Shijiazhuang Handu Garment Co., Ltd.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Panno di pulizia della cucina dell'asciugamano di bambù della microfibra di pulizia della famiglia degradabile ecologico all'ingrosso</t>
+          <t>Zhejiang E-Sun Enviromental Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Hangzhou Wipex Nonwovens Co., Ltd.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Topeco articoli per la casa 2022 100% panno di bambù sostenibile panni per la pulizia riutilizzabili conservazione del panno di bambù lavabile in bambù organico</t>
+          <t>Henan Topeco Clean Import &amp; Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OEM stampato riutilizzabile cotone pasta di bambù panno per togliere l'olio rotoli da cucina asciugamani di carta Non tessuta all'ingrosso panni per la pulizia</t>
+          <t>Anqing Jiaxin Medical Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Asciugamani di bambù personalizzati in carta da cucina OEM salviettine per la pulizia usa e getta in rotolo eco-friendly salviettine umidificate produttore di asciugamani Private Label</t>
+          <t>Linghai Zhanwang Biotechnology Co., Ltd.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Salviette di stoffa di bambù 100% Super morbide AnAnBaby all'ingrosso salviette di bambù riutilizzabili</t>
+          <t>Shanghai Chuangsi Youxiang Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Asciugamano in bambù per la pulizia della cucina resistente riutilizzabile ad asciugatura rapida ecologico biodegradabile al 100%</t>
+          <t>Changshu Power Clean Co., Ltd.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Asciugamano Eco-Friendly di Carta Di Bambù Organico Riutilizzabile Senza Carta Del Bambino Panno Da Cucina Panno di Unpaper Asciugamani</t>
+          <t>Henan Zenpe Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Salviette per la pulizia di scarpe da ginnastica usa e getta personalizzate in bambù non tessuto organico di alta qualità</t>
+          <t>Zhejiang Furuisen Spunlaced Non-Wovens Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso eco-friendly di bambù bagnato carta velina 10 pz campione libero lavabile salviettine detergenti biodegradabili con il tuo Logo</t>
+          <t>Fuyang Yangyang Health Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso della fabbrica di cotone di bambù organico panno viso asciugamano riutilizzabile per la rimozione del trucco</t>
+          <t>Dongguan Ruisheng Textile Co., Ltd.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Zhejiang Qimei Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Produttore all'ingrosso fibra di bambù salviette per la pulizia stracci eco-friendly piatto panno Super assorbente per la pulizia della cucina asciugamano</t>
+          <t>Yiwu Chen Ju Electronic Commerce Co., Ltd.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Salviette di bambù lavabili all'ingrosso in tessuto di bambù 100% riutilizzabili da cucina rotolo di asciugamani di carta</t>
+          <t>Colorful medium inc.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>100% salviette di bambù lavabile cucina riutilizzabile asciugamano rotolo biodegradabile panno di pulizia del piatto di bambù</t>
+          <t>King Tech Co., Ltd.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Prodotti promozionali salviette per scarpe personalizzate con etichetta privata per lucidare e pulire le scarpe da ginnastica</t>
+          <t>Zhejiang Huashun Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Asciugamano e straccio di carta di bambù usa e getta per la pulizia della cucina</t>
+          <t>Hangzhou Shengbo Cleaning Product Co., Ltd.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VVG eco-friendly riutilizzabile biodegradabile bambù biancheria lavabile in fibra di bambù multiuso asciugamano da cucina</t>
+          <t>Ningbo Yachen Import &amp; Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cina fornitore eco-friendly microfibra asciugamano da cucina di bambù panno per la pulizia di vetro e piatto</t>
+          <t>Shanghai Kingmax Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Xiamen Mk Health Care Product Co., Ltd.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Changshu He Gui Textiles Co., Ltd.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>EASYMOM salviette in spugna di bambù per neonati in velluto di bambù a 2 strati lavabili riutilizzabili all'ingrosso EASYMOM</t>
+          <t>Pujiang Hailan Garments Co., Ltd.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BSCI ISO9001 tessuto di bambù all'ingrosso salviette di bambù lavabili 100% riutilizzabili da cucina rotolo di carta di bambù</t>
+          <t>Dongguan Winall Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>All'ingrosso riutilizzabile in fibra di bambù lavabile per pulire stracci da cucina</t>
+          <t>Changshu Beisimei Knitting Textile Co., Ltd.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>100% di bambù biodegradabile salviette per la pulizia riutilizzabili asciugamani di carta lavabile rotolo di carta di bambù</t>
+          <t>Shanghai Mtg Cleaning Material Co., Ltd.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
